--- a/regression.xlsx
+++ b/regression.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shamim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shamim\Downloads\Streamlit-Dashboard-Descriptive-Analytics-with-MYSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1399DBFF-A0F1-4CC9-8247-756C15AACACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE472059-E9BB-40C9-B56A-B9D741B44405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,42 @@
   </si>
   <si>
     <t>Jones</t>
+  </si>
+  <si>
+    <t>Hafsa</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Jasmin</t>
+  </si>
+  <si>
+    <t>eve</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>james</t>
+  </si>
+  <si>
+    <t>winny</t>
+  </si>
+  <si>
+    <t>khan</t>
+  </si>
+  <si>
+    <t>shams</t>
+  </si>
+  <si>
+    <t>aliyah</t>
+  </si>
+  <si>
+    <t>danny</t>
+  </si>
+  <si>
+    <t>suzy</t>
   </si>
 </sst>
 </file>
@@ -366,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,6 +483,188 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
